--- a/APdataJava/Sidra.xlsx
+++ b/APdataJava/Sidra.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\2° Semestre ADS\ProjetoAPdata\Apache-poi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E547A-7712-4CC3-8D6D-DC3EBAF7C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="48" windowWidth="13332" windowHeight="4200" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela" sheetId="1" r:id="rId1"/>
-    <sheet name="Notas" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabela" sheetId="1" r:id="rId3"/>
+    <sheet name="Notas" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Tabela 9929 - Domicílios particulares permanentes ocupados, por condição de ocupação do domicílio, segundo o número de moradores com 15 anos ou mais de idade e número de moradores com 14 anos ou menos de idade</t>
   </si>
@@ -76,6 +57,48 @@
   </si>
   <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>Barueri (SP)</t>
+  </si>
+  <si>
+    <t>Campinas (SP)</t>
+  </si>
+  <si>
+    <t>Diadema (SP)</t>
+  </si>
+  <si>
+    <t>Guarujá (SP)</t>
+  </si>
+  <si>
+    <t>Guarulhos (SP)</t>
+  </si>
+  <si>
+    <t>Osasco (SP)</t>
+  </si>
+  <si>
+    <t>Praia Grande (SP)</t>
+  </si>
+  <si>
+    <t>Santo André (SP)</t>
+  </si>
+  <si>
+    <t>Santos (SP)</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo (SP)</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul (SP)</t>
+  </si>
+  <si>
+    <t>São José dos Campos (SP)</t>
+  </si>
+  <si>
+    <t>São Paulo (SP)</t>
+  </si>
+  <si>
+    <t>São Vicente (SP)</t>
   </si>
   <si>
     <t>Fonte: IBGE - Censo Demográfico</t>
@@ -138,61 +161,19 @@
   <si>
     <t>Significa uma faixa de valores. Varia em função da tabela (se for o caso).
 Ex: O nível de precisão da produção estimada de combustíveis está na faixa A (95 a 100%)</t>
-  </si>
-  <si>
-    <t>São Vicente</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>São José dos Campos</t>
-  </si>
-  <si>
-    <t>São Caetano do Sul</t>
-  </si>
-  <si>
-    <t>São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Santo André</t>
-  </si>
-  <si>
-    <t>Praia Grande</t>
-  </si>
-  <si>
-    <t>Osasco</t>
-  </si>
-  <si>
-    <t>Guarulhos</t>
-  </si>
-  <si>
-    <t>Guarujá</t>
-  </si>
-  <si>
-    <t>Diadema</t>
-  </si>
-  <si>
-    <t>Campinas</t>
-  </si>
-  <si>
-    <t>Barueri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <color indexed="64"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,12 +192,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -224,404 +219,54 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
-  <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    </row>
+    <row r="6">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -653,7 +298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -667,13 +312,13 @@
         <v>14.23</v>
       </c>
       <c r="E7">
-        <v>32.520000000000003</v>
+        <v>32.52</v>
       </c>
       <c r="F7">
         <v>15.45</v>
       </c>
       <c r="G7">
-        <v>9.0500000000000007</v>
+        <v>9.05</v>
       </c>
       <c r="H7">
         <v>22.23</v>
@@ -691,9 +336,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -720,7 +365,7 @@
         <v>8.58</v>
       </c>
       <c r="J8">
-        <v>15.5</v>
+        <v>15.50</v>
       </c>
       <c r="K8">
         <v>5.38</v>
@@ -729,9 +374,9 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -740,7 +385,7 @@
         <v>67.94</v>
       </c>
       <c r="D9">
-        <v>13.6</v>
+        <v>13.60</v>
       </c>
       <c r="E9">
         <v>31.45</v>
@@ -749,7 +394,7 @@
         <v>14.77</v>
       </c>
       <c r="G9">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="H9">
         <v>26.65</v>
@@ -767,9 +412,9 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -793,21 +438,21 @@
         <v>29.47</v>
       </c>
       <c r="I10">
-        <v>8.8000000000000007</v>
+        <v>8.80</v>
       </c>
       <c r="J10">
         <v>14.41</v>
       </c>
       <c r="K10">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="L10">
         <v>1.83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -843,9 +488,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -857,7 +502,7 @@
         <v>12.67</v>
       </c>
       <c r="E12">
-        <v>30.9</v>
+        <v>30.90</v>
       </c>
       <c r="F12">
         <v>15.74</v>
@@ -881,9 +526,9 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -916,12 +561,12 @@
         <v>3.85</v>
       </c>
       <c r="L13">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.70</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -954,24 +599,24 @@
         <v>3.97</v>
       </c>
       <c r="L14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.90</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>70.819999999999993</v>
+        <v>70.82</v>
       </c>
       <c r="D15">
         <v>13.82</v>
       </c>
       <c r="E15">
-        <v>33.380000000000003</v>
+        <v>33.38</v>
       </c>
       <c r="F15">
         <v>15.53</v>
@@ -992,12 +637,12 @@
         <v>3.89</v>
       </c>
       <c r="L15">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.80</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1006,7 +651,7 @@
         <v>68.11</v>
       </c>
       <c r="D16">
-        <v>17.2</v>
+        <v>17.20</v>
       </c>
       <c r="E16">
         <v>30.62</v>
@@ -1030,18 +675,18 @@
         <v>4.46</v>
       </c>
       <c r="L16">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>69.290000000000006</v>
+        <v>69.29</v>
       </c>
       <c r="D17">
         <v>13.57</v>
@@ -1071,9 +716,9 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1109,9 +754,9 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1126,7 +771,7 @@
         <v>30.52</v>
       </c>
       <c r="F19">
-        <v>15.3</v>
+        <v>15.30</v>
       </c>
       <c r="G19">
         <v>9.33</v>
@@ -1141,21 +786,21 @@
         <v>14.11</v>
       </c>
       <c r="K19">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="L19">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20">
-        <v>65.8</v>
+        <v>65.80</v>
       </c>
       <c r="D20">
         <v>14.74</v>
@@ -1167,13 +812,13 @@
         <v>14.08</v>
       </c>
       <c r="G20">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="H20">
         <v>28.37</v>
       </c>
       <c r="I20">
-        <v>8.6999999999999993</v>
+        <v>8.70</v>
       </c>
       <c r="J20">
         <v>13.51</v>
@@ -1182,18 +827,18 @@
         <v>4.09</v>
       </c>
       <c r="L20">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21">
-        <v>67.5</v>
+        <v>67.50</v>
       </c>
       <c r="D21">
         <v>15.55</v>
@@ -1202,10 +847,10 @@
         <v>28.07</v>
       </c>
       <c r="F21">
-        <v>14.6</v>
+        <v>14.60</v>
       </c>
       <c r="G21">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="H21">
         <v>26.81</v>
@@ -1223,25 +868,13 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A22:L22"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A6"/>
@@ -1250,95 +883,96 @@
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
